--- a/Computacion/Informe Final/Matrices.xlsx
+++ b/Computacion/Informe Final/Matrices.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documents\UAI-Cuatrimestre2\Computacion\Informe Final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1742D417-7D03-44ED-834E-E7AD0AF78CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B81ACF7C-0BA3-4E06-ACD2-22C55607E6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="0" windowWidth="15495" windowHeight="11070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>A =</t>
   </si>
@@ -65,6 +65,15 @@
   </si>
   <si>
     <t>C =</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -126,7 +135,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -145,6 +154,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,20 +483,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AC19"/>
+  <dimension ref="A2:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="P14" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="14" width="4.7109375" customWidth="1"/>
     <col min="15" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="29" width="4.7109375" customWidth="1"/>
+    <col min="16" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B2" s="2">
         <v>2</v>
       </c>
@@ -497,7 +555,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,7 +629,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B4" s="2">
         <v>-5</v>
       </c>
@@ -627,7 +685,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B6" s="5">
         <f>B2*G2+C2*G3+D2*G4</f>
         <v>52</v>
@@ -653,7 +711,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B7" s="5">
         <f>B3*G2+C3*G3+D3*G4</f>
         <v>10</v>
@@ -679,7 +737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <f>B4*G2+C4*G3+D4*G4</f>
         <v>20</v>
@@ -705,7 +763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <v>2</v>
       </c>
@@ -734,8 +792,67 @@
       <c r="N13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q13" s="14">
+        <f t="shared" ref="Q13:T16" ca="1" si="0">RANDBETWEEN(-10,10)</f>
+        <v>-8</v>
+      </c>
+      <c r="R13" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="S13" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="T13" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="U13" s="7"/>
+      <c r="V13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" ref="W13:Z16" ca="1" si="1">RANDBETWEEN(-10,10)</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="Y13" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="Z13" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="17" cm="1">
+        <f t="array" aca="1" ref="AC13:AF16" ca="1">MMULT(Q13:T16,W13:Z16)</f>
+        <v>-79</v>
+      </c>
+      <c r="AD13" s="13">
+        <f ca="1"/>
+        <v>65</v>
+      </c>
+      <c r="AE13" s="13">
+        <f ca="1"/>
+        <v>-21</v>
+      </c>
+      <c r="AF13" s="18">
+        <f ca="1"/>
+        <v>-157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
@@ -772,8 +889,61 @@
       <c r="N14" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="P14" s="1"/>
+      <c r="Q14" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="R14" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-6</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="T14" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="7"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="X14" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="Y14" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="Z14" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="17">
+        <f ca="1"/>
+        <v>10</v>
+      </c>
+      <c r="AD14" s="13">
+        <f ca="1"/>
+        <v>45</v>
+      </c>
+      <c r="AE14" s="13">
+        <f ca="1"/>
+        <v>20</v>
+      </c>
+      <c r="AF14" s="18">
+        <f ca="1"/>
+        <v>-67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>5</v>
       </c>
@@ -801,8 +971,110 @@
       <c r="N15" s="4">
         <v>6</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="Q15" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="R15" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="S15" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="T15" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="X15" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="Y15" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Z15" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>-5</v>
+      </c>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="17">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+      <c r="AD15" s="13">
+        <f ca="1"/>
+        <v>-70</v>
+      </c>
+      <c r="AE15" s="13">
+        <f ca="1"/>
+        <v>42</v>
+      </c>
+      <c r="AF15" s="18">
+        <f ca="1"/>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="14">
+        <f t="shared" ca="1" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="R16" s="12">
+        <f t="shared" ref="Q16:S16" ca="1" si="2">RANDBETWEEN(-10,10)</f>
+        <v>-5</v>
+      </c>
+      <c r="S16" s="15">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="T16" s="16">
+        <f t="shared" ca="1" si="0"/>
+        <v>-9</v>
+      </c>
+      <c r="W16" s="14">
+        <f t="shared" ca="1" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="X16" s="12">
+        <f t="shared" ca="1" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="Y16" s="15">
+        <f t="shared" ca="1" si="1"/>
+        <v>-7</v>
+      </c>
+      <c r="Z16" s="16">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="AC16" s="17">
+        <f ca="1"/>
+        <v>-65</v>
+      </c>
+      <c r="AD16" s="11">
+        <f ca="1"/>
+        <v>2</v>
+      </c>
+      <c r="AE16" s="13">
+        <f ca="1"/>
+        <v>13</v>
+      </c>
+      <c r="AF16" s="18">
+        <f ca="1"/>
+        <v>-98</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5">
         <f>B13*G13+C13*G14+D13*G15</f>
         <v>3</v>
@@ -824,8 +1096,11 @@
       <c r="I17" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AC17" s="7"/>
+    </row>
+    <row r="18" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>B14*G13+C14*G14+D14*G15</f>
         <v>3</v>
@@ -852,8 +1127,60 @@
         <v>45</v>
       </c>
       <c r="K18" s="5"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="Q18" s="21">
+        <f ca="1">Q13</f>
+        <v>-8</v>
+      </c>
+      <c r="R18" s="19">
+        <f t="shared" ref="R18:R19" ca="1" si="3">R13</f>
+        <v>-9</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="19">
+        <f ca="1">S13</f>
+        <v>5</v>
+      </c>
+      <c r="U18" s="22">
+        <f t="shared" ref="U18:U19" ca="1" si="4">T13</f>
+        <v>-9</v>
+      </c>
+      <c r="W18" s="23">
+        <f ca="1">W13</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="20">
+        <f t="shared" ref="X18:X19" ca="1" si="5">X13</f>
+        <v>-7</v>
+      </c>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="20">
+        <f ca="1">Y13</f>
+        <v>3</v>
+      </c>
+      <c r="AA18" s="24">
+        <f t="shared" ref="AA18:AA19" ca="1" si="6">Z13</f>
+        <v>3</v>
+      </c>
+      <c r="AB18" s="15"/>
+      <c r="AC18" s="15" cm="1">
+        <f t="array" aca="1" ref="AC18:AD19" ca="1">MMULT(Q18:R19,W18:X19)</f>
+        <v>-44</v>
+      </c>
+      <c r="AD18" s="15">
+        <f ca="1"/>
+        <v>74</v>
+      </c>
+      <c r="AE18" s="15"/>
+      <c r="AF18" s="15" cm="1">
+        <f t="array" aca="1" ref="AF18:AG19" ca="1">MMULT(T18:U19,Z18:AA19)</f>
+        <v>-75</v>
+      </c>
+      <c r="AG18" s="15">
+        <f ca="1"/>
+        <v>-57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5">
         <f>B15*G13+C15*G14+D15*G15</f>
         <v>7</v>
@@ -874,6 +1201,211 @@
       </c>
       <c r="I19" s="6">
         <v>5</v>
+      </c>
+      <c r="Q19" s="21">
+        <f t="shared" ref="Q19:R19" ca="1" si="7">Q14</f>
+        <v>9</v>
+      </c>
+      <c r="R19" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>-6</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="19">
+        <f t="shared" ref="T19:U19" ca="1" si="8">S14</f>
+        <v>10</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="W19" s="23">
+        <f t="shared" ref="W19:X19" ca="1" si="9">W14</f>
+        <v>4</v>
+      </c>
+      <c r="X19" s="20">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2</v>
+      </c>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="20">
+        <f t="shared" ref="Z19:AA19" ca="1" si="10">Y14</f>
+        <v>10</v>
+      </c>
+      <c r="AA19" s="24">
+        <f t="shared" ca="1" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="AB19" s="15"/>
+      <c r="AC19" s="15">
+        <f ca="1"/>
+        <v>-15</v>
+      </c>
+      <c r="AD19" s="15">
+        <f ca="1"/>
+        <v>-51</v>
+      </c>
+      <c r="AE19" s="15"/>
+      <c r="AF19" s="15">
+        <f ca="1"/>
+        <v>40</v>
+      </c>
+      <c r="AG19" s="15">
+        <f ca="1"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="10"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="15"/>
+      <c r="AC20" s="15"/>
+      <c r="AD20" s="15"/>
+      <c r="AE20" s="15"/>
+      <c r="AF20" s="15"/>
+      <c r="AG20" s="15"/>
+    </row>
+    <row r="21" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q21" s="21">
+        <f ca="1">Q15</f>
+        <v>7</v>
+      </c>
+      <c r="R21" s="19">
+        <f t="shared" ref="R21:R22" ca="1" si="11">R15</f>
+        <v>6</v>
+      </c>
+      <c r="S21" s="13"/>
+      <c r="T21" s="19">
+        <f ca="1">S15</f>
+        <v>-3</v>
+      </c>
+      <c r="U21" s="22">
+        <f t="shared" ref="U21:U22" ca="1" si="12">T15</f>
+        <v>3</v>
+      </c>
+      <c r="W21" s="14">
+        <f ca="1">W15</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="15">
+        <f t="shared" ref="X21:X22" ca="1" si="13">X15</f>
+        <v>9</v>
+      </c>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="15">
+        <f ca="1">Y15</f>
+        <v>6</v>
+      </c>
+      <c r="AA21" s="16">
+        <f t="shared" ref="AA21:AA22" ca="1" si="14">Z15</f>
+        <v>-5</v>
+      </c>
+      <c r="AB21" s="15"/>
+      <c r="AC21" s="15" cm="1">
+        <f t="array" aca="1" ref="AC21:AD22" ca="1">MMULT(Q21:R22,W21:X22)</f>
+        <v>44</v>
+      </c>
+      <c r="AD21" s="15">
+        <f ca="1"/>
+        <v>99</v>
+      </c>
+      <c r="AE21" s="15"/>
+      <c r="AF21" s="15" cm="1">
+        <f t="array" aca="1" ref="AF21:AG22" ca="1">MMULT(T21:U22,Z21:AA22)</f>
+        <v>-39</v>
+      </c>
+      <c r="AG21" s="15">
+        <f ca="1"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Q22" s="21">
+        <f t="shared" ref="Q22:R22" ca="1" si="15">Q16</f>
+        <v>-4</v>
+      </c>
+      <c r="R22" s="19">
+        <f t="shared" ca="1" si="11"/>
+        <v>-5</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="19">
+        <f t="shared" ref="T22:U22" ca="1" si="16">S16</f>
+        <v>2</v>
+      </c>
+      <c r="U22" s="22">
+        <f t="shared" ca="1" si="12"/>
+        <v>-9</v>
+      </c>
+      <c r="W22" s="14">
+        <f t="shared" ref="W22:X22" ca="1" si="17">W16</f>
+        <v>5</v>
+      </c>
+      <c r="X22" s="15">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="15">
+        <f t="shared" ref="Z22:AA22" ca="1" si="18">Y16</f>
+        <v>-7</v>
+      </c>
+      <c r="AA22" s="16">
+        <f t="shared" ca="1" si="14"/>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="15"/>
+      <c r="AC22" s="15">
+        <f ca="1"/>
+        <v>-33</v>
+      </c>
+      <c r="AD22" s="15">
+        <f ca="1"/>
+        <v>-66</v>
+      </c>
+      <c r="AE22" s="15"/>
+      <c r="AF22" s="15">
+        <f ca="1"/>
+        <v>75</v>
+      </c>
+      <c r="AG22" s="15">
+        <f ca="1"/>
+        <v>-46</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AB23" s="15"/>
+      <c r="AC23" s="15"/>
+      <c r="AD23" s="15"/>
+      <c r="AE23" s="15"/>
+      <c r="AF23" s="15"/>
+      <c r="AG23" s="15"/>
+    </row>
+    <row r="25" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Q25">
+        <v>4096</v>
+      </c>
+      <c r="S25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Q26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" x14ac:dyDescent="0.25">
+      <c r="Q27">
+        <f>Q25/Q26</f>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
